--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3439338.438330639</v>
+        <v>3436793.845636354</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>109.9645463939861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -713,7 +713,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>180.8244779223032</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.45644170423123</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>130.4949840230014</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -814,58 +814,58 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>52.21594625443444</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>181.2271892168648</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425909</v>
+        <v>23.94240680425895</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090814</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.56939904994577</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074787</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>29.43305940534779</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.85894767157082</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>79.77074001252527</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>83.64935939502998</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>81.61065509760122</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969731</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>125.0721477169158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.07916359105414</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701357</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060383</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4189,19 +4189,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>126.0773463611703</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659128</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="U2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="V2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="W2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="X2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.6519665656065</v>
+        <v>133.0228471103738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0474416122419</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>28.59441233111491</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>28.59441233111491</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
         <v>15.00204697330559</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>525.654732181024</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4513,25 +4513,25 @@
         <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1372.655679197082</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="C5" t="n">
-        <v>1372.655679197082</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="D5" t="n">
-        <v>1014.389980590332</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>628.6017279920873</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="F5" t="n">
-        <v>217.6158232024797</v>
+        <v>46.93369746226215</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746981</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030766</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709184</v>
+        <v>823.5081935709192</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540653</v>
+        <v>1562.810726301003</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540653</v>
+        <v>1562.810726301003</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540653</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.655679197082</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.655679197082</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="X5" t="n">
-        <v>1372.655679197082</v>
+        <v>935.7070037112876</v>
       </c>
       <c r="Y5" t="n">
-        <v>1372.655679197082</v>
+        <v>826.2672908738316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372.6620599560509</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="C6" t="n">
-        <v>198.2090306749239</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="D6" t="n">
-        <v>49.2746210136726</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787535</v>
+        <v>61.66788464787551</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189986</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223513</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352482</v>
+        <v>958.8971200352496</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.87866090655</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.87866090655</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.87866090655</v>
+        <v>1062.768760419126</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.87866090655</v>
+        <v>834.6536183746829</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674807</v>
+        <v>599.5015101429401</v>
       </c>
       <c r="W6" t="n">
-        <v>956.4891959466056</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="X6" t="n">
-        <v>748.6376957410728</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="Y6" t="n">
-        <v>540.8773969761189</v>
+        <v>362.0108483422813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858005</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="C7" t="n">
-        <v>332.5877893114865</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="D7" t="n">
-        <v>182.4711498991508</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574693</v>
+        <v>64.24066662574708</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584119</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195367</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934718</v>
+        <v>342.3101561934726</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858005</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858005</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858005</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858005</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858005</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858005</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858005</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858005</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858005</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858005</v>
+        <v>34.55805631675773</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1237.083609737186</v>
+        <v>896.0092460387907</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.083609737186</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>1237.083609737186</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>851.2953571389414</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
-        <v>766.8010547197192</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
         <v>152.50781843019</v>
@@ -4820,34 +4820,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
         <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1627.222941712997</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1627.222941712997</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.222941712997</v>
+        <v>978.4442511878829</v>
       </c>
       <c r="Y8" t="n">
-        <v>1237.083609737186</v>
+        <v>896.0092460387907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
         <v>89.55356510562316</v>
@@ -4908,25 +4908,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
         <v>92.71685897981521</v>
@@ -4990,22 +4990,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>332.4955175640695</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.9538442962397</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,40 +5027,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,7 +5315,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362682</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,10 +6543,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909563</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>334.7259677085632</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>187.8360202106528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7661,13 +7661,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.4449747012147</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,19 +26077,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132548</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132555</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253124</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231929</v>
+        <v>115410.0540231922</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.995174443436554e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881972</v>
+        <v>62913.63765881988</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219749</v>
+        <v>27875.25362197465</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26430,28 +26430,28 @@
         <v>16046.58397189199</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="I4" t="n">
         <v>16046.583971892</v>
       </c>
-      <c r="H4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189197</v>
-      </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="K4" t="n">
         <v>16046.583971892</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="O4" t="n">
         <v>16046.583971892</v>
@@ -26470,7 +26470,7 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936818</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.6306421263</v>
+        <v>-167415.6306421268</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534351</v>
+        <v>205831.1174534345</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564986</v>
+        <v>384651.5111564993</v>
       </c>
       <c r="E6" t="n">
-        <v>27998.28334319079</v>
+        <v>27963.54541775533</v>
       </c>
       <c r="F6" t="n">
-        <v>629441.4909174566</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="G6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920203</v>
       </c>
       <c r="H6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="I6" t="n">
-        <v>629441.4909174561</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="J6" t="n">
-        <v>580376.5461889119</v>
+        <v>580341.8082634761</v>
       </c>
       <c r="K6" t="n">
-        <v>566527.8532586367</v>
+        <v>566493.1153332008</v>
       </c>
       <c r="L6" t="n">
-        <v>601566.2372954815</v>
+        <v>601531.4993700458</v>
       </c>
       <c r="M6" t="n">
-        <v>472295.1103658577</v>
+        <v>472260.3724404227</v>
       </c>
       <c r="N6" t="n">
-        <v>629441.4909174565</v>
+        <v>629406.7529920209</v>
       </c>
       <c r="O6" t="n">
-        <v>629441.4909174562</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="P6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920206</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.610048959083035e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950616</v>
+        <v>758.8996292950621</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,10 +26790,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959471</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382157</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262255</v>
+        <v>94.81103524262198</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666912</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>303.133286836072</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>70.34478264272713</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>144.1886387511697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>75.27800118047608</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,7 +27585,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.0246955171846</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760041</v>
+        <v>92.85788772760033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8926229469722</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>143.0756814054552</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937515</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074796</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>222.2619237555718</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.387873427057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304049</v>
+        <v>30.24193919304042</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589155</v>
+        <v>36.91115760589146</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>35.98957650409707</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27831,7 +27831,7 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>323.2266863466814</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>304.6272835584523</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27980,13 +27980,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576071</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28062,10 +28062,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>35.45192755253839</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.51250563517902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28387,10 +28387,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.050093593832571e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.0799144520272</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.447450251178</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968103</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610701</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519149</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860964</v>
+        <v>438.7164434860967</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898983</v>
+        <v>69.52130774898988</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062485</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.4276051721892</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.6002979658088</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468666</v>
+        <v>424.5470671468669</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374456</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378886</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635562</v>
+        <v>96.75348224635569</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054715</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.8472594388308</v>
+        <v>5.847259438830805</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>669.4669885000068</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198423</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811908</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695376</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.9582252644792</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974622</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092694</v>
+        <v>27.38366498092705</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437902</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635336</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872824</v>
+        <v>68.38629016872841</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554481</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501481</v>
+        <v>68.57507023501495</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230878</v>
+        <v>75.59399159230892</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761565</v>
+        <v>81.73343028761579</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569197</v>
+        <v>54.97578017569211</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235228</v>
+        <v>27.78676100235242</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>526.8707440555623</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
